--- a/input/static_data/cost/season_16/player_cost_GW2.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW2.xlsx
@@ -483,37 +483,37 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="12">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1585,37 +1585,37 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="41">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6100000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3789,37 +3789,37 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="99">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="134">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>5900000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7779,37 +7779,37 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="204">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="206">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="212">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="222">
@@ -10211,37 +10211,37 @@
         <v>266.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="268">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="270">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="276">
@@ -10591,37 +10591,37 @@
         <v>276.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="278">
@@ -11503,37 +11503,37 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="302">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="311">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7400000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="C331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="D331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="E331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="F331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="G331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="H331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="I331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="J331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="K331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="L331" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="334">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7600000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="367">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8200000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L398" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L403" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="404">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="408">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L416" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="417">
@@ -15911,37 +15911,37 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="418">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L420" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="421">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.12E7</v>
+        <v>1.1E7</v>
       </c>
     </row>
     <row r="430">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="431">
@@ -16709,37 +16709,37 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="439">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17317,37 +17317,37 @@
         <v>453.0</v>
       </c>
       <c r="B454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="455">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="459">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="462">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="476">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="487">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="490">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7500000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>5200000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="525">
@@ -20623,37 +20623,37 @@
         <v>540.0</v>
       </c>
       <c r="B541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L541" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="542">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7200000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L568" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="569">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>9800000.0</v>
+        <v>9900000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.15E7</v>
+        <v>1.17E7</v>
       </c>
     </row>
     <row r="585">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6300000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="597">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="621">
@@ -23853,37 +23853,37 @@
         <v>625.0</v>
       </c>
       <c r="B626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
   </sheetData>
